--- a/analysis/post_gemini_data/Participant120/task_med.xlsx
+++ b/analysis/post_gemini_data/Participant120/task_med.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,259 +422,255 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg10</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg11</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg15</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>arg5</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>arg7</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>arg9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>assignments</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>assignments2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>conditioanlbody3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>conditioanlbody4</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>conditionalsta5</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>conditionalstat3</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>conditionalstat4</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>conditionalstatem2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>conditionalstatement</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>conditonalbody2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>condtionalbody</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>condtionalbody5</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>index2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>loop</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>methodcall3</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>methodcall4</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>methodcall6</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>methodcalls</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>param1</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>param2</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>param3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>variable</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>variable10</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>variable11</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>variable12</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>variable13</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>variable2</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>variable4</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>variable6</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>variable7</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>variable8</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>variable9</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>varuable5</t>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>variable5</t>
         </is>
       </c>
     </row>
@@ -754,137 +738,111 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>31</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>4</v>
       </c>
-      <c r="M3" t="n">
-        <v>8</v>
-      </c>
-      <c r="N3" t="n">
-        <v>113</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>25</v>
-      </c>
       <c r="Q3" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="U3" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="W3" t="n">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="n">
         <v>74</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AC3" t="n">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AI3" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="n">
-        <v>174</v>
-      </c>
-      <c r="AN3" t="n">
+        <v>94</v>
+      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
         <v>1</v>
       </c>
-      <c r="AO3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>6</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR3" t="n">
         <v>0</v>
       </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="n">
         <v>0</v>
       </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -893,137 +851,111 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>137</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>11</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>12</v>
+      </c>
+      <c r="U4" t="n">
         <v>9</v>
       </c>
-      <c r="M4" t="n">
+      <c r="V4" t="n">
         <v>14</v>
       </c>
-      <c r="N4" t="n">
-        <v>506</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>23</v>
-      </c>
-      <c r="R4" t="n">
-        <v>19</v>
-      </c>
-      <c r="S4" t="n">
-        <v>18</v>
-      </c>
-      <c r="T4" t="n">
-        <v>29</v>
-      </c>
-      <c r="U4" t="n">
-        <v>76</v>
-      </c>
-      <c r="V4" t="n">
-        <v>39</v>
-      </c>
       <c r="W4" t="n">
-        <v>272</v>
+        <v>70</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Y4" t="n">
         <v>453</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AC4" t="n">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI4" t="n">
         <v>9</v>
       </c>
-      <c r="AH4" t="n">
-        <v>43</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>92</v>
-      </c>
       <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="n">
-        <v>2</v>
-      </c>
+      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="n">
-        <v>698</v>
-      </c>
-      <c r="AN4" t="n">
+        <v>439</v>
+      </c>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
         <v>3</v>
       </c>
-      <c r="AO4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>8</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR4" t="n">
         <v>1</v>
       </c>
-      <c r="AS4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="n">
         <v>1</v>
       </c>
-      <c r="AV4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>2</v>
-      </c>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1032,137 +964,111 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1034.35</v>
+        <v>183.42</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>250.19</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>3337.54</v>
+        <v>650.74</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>183.57</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3837.35</v>
+        <v>633.95</v>
       </c>
       <c r="M5" t="n">
-        <v>5731.18</v>
+        <v>517.27</v>
       </c>
       <c r="N5" t="n">
-        <v>113028.79</v>
+        <v>24285.13</v>
       </c>
       <c r="O5" t="n">
-        <v>2502.58</v>
+        <v>166.83</v>
       </c>
       <c r="P5" t="n">
-        <v>11938.29</v>
+        <v>1335.61</v>
       </c>
       <c r="Q5" t="n">
-        <v>6507.62</v>
+        <v>885.1</v>
       </c>
       <c r="R5" t="n">
-        <v>4855.56</v>
+        <v>2136.12</v>
       </c>
       <c r="S5" t="n">
-        <v>4514.64</v>
+        <v>450.51</v>
       </c>
       <c r="T5" t="n">
-        <v>6983.11</v>
+        <v>2444.27</v>
       </c>
       <c r="U5" t="n">
-        <v>18328.98</v>
+        <v>1451.5</v>
       </c>
       <c r="V5" t="n">
-        <v>9634.709999999999</v>
+        <v>2720.04</v>
       </c>
       <c r="W5" t="n">
-        <v>63903.72</v>
+        <v>13641.51</v>
       </c>
       <c r="X5" t="n">
-        <v>4638.23</v>
+        <v>984.39</v>
       </c>
       <c r="Y5" t="n">
         <v>89076.48</v>
       </c>
       <c r="Z5" t="n">
-        <v>5113.84</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2185.56</v>
-      </c>
+        <v>166.87</v>
+      </c>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
-        <v>6825.88</v>
+        <v>942.87</v>
       </c>
       <c r="AC5" t="n">
-        <v>48379.2</v>
+        <v>9387.08</v>
       </c>
       <c r="AD5" t="n">
-        <v>2878.46</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>517.15</v>
-      </c>
+        <v>709.25</v>
+      </c>
+      <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="n">
-        <v>2402.13</v>
+        <v>200.17</v>
       </c>
       <c r="AH5" t="n">
-        <v>11245.72</v>
+        <v>800.9</v>
       </c>
       <c r="AI5" t="n">
-        <v>22111.88</v>
+        <v>1517.97</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="n">
-        <v>317.01</v>
-      </c>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="n">
-        <v>209054.05</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1568.3</v>
-      </c>
+        <v>125644.1</v>
+      </c>
+      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="n">
-        <v>734.17</v>
+        <v>300.3</v>
       </c>
       <c r="AP5" t="n">
-        <v>3136.59</v>
+        <v>884.27</v>
       </c>
       <c r="AQ5" t="n">
-        <v>4546.45</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>266.95</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>250.23</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>250.25</v>
-      </c>
+        <v>166.87</v>
+      </c>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="n">
         <v>150.11</v>
       </c>
-      <c r="AV5" t="n">
-        <v>467.11</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>318.41</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>116.8</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>1017.8</v>
-      </c>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1171,137 +1077,111 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.04</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.54</v>
+        <v>0.18</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>0.03</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>0.62</v>
+        <v>0.18</v>
       </c>
       <c r="M6" t="n">
-        <v>0.93</v>
+        <v>0.14</v>
       </c>
       <c r="N6" t="n">
-        <v>18.26</v>
+        <v>6.76</v>
       </c>
       <c r="O6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="U6" t="n">
         <v>0.4</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.96</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>0.76</v>
       </c>
       <c r="W6" t="n">
-        <v>10.33</v>
+        <v>3.8</v>
       </c>
       <c r="X6" t="n">
-        <v>0.75</v>
+        <v>0.27</v>
       </c>
       <c r="Y6" t="n">
         <v>24.78</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.35</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
-        <v>1.1</v>
+        <v>0.26</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.82</v>
+        <v>2.61</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.08</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>0.39</v>
+        <v>0.06</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.82</v>
+        <v>0.22</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.58</v>
+        <v>0.42</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="n">
-        <v>0.05</v>
-      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="n">
-        <v>33.78</v>
-      </c>
-      <c r="AN6" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AP6" t="n">
         <v>0.25</v>
       </c>
-      <c r="AO6" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.51</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AR6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="n">
         <v>0.04</v>
       </c>
-      <c r="AS6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0.16</v>
-      </c>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1310,137 +1190,111 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.87</v>
+        <v>183.42</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>125.09</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>238.4</v>
+        <v>162.68</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>183.57</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>426.37</v>
+        <v>633.95</v>
       </c>
       <c r="M7" t="n">
-        <v>409.37</v>
+        <v>258.63</v>
       </c>
       <c r="N7" t="n">
-        <v>223.38</v>
+        <v>177.26</v>
       </c>
       <c r="O7" t="n">
-        <v>357.51</v>
+        <v>166.83</v>
       </c>
       <c r="P7" t="n">
-        <v>271.32</v>
+        <v>222.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>282.94</v>
+        <v>221.27</v>
       </c>
       <c r="R7" t="n">
-        <v>255.56</v>
+        <v>194.19</v>
       </c>
       <c r="S7" t="n">
-        <v>250.81</v>
+        <v>225.26</v>
       </c>
       <c r="T7" t="n">
-        <v>240.8</v>
+        <v>203.69</v>
       </c>
       <c r="U7" t="n">
-        <v>241.17</v>
+        <v>161.28</v>
       </c>
       <c r="V7" t="n">
-        <v>247.04</v>
+        <v>194.29</v>
       </c>
       <c r="W7" t="n">
-        <v>234.94</v>
+        <v>194.88</v>
       </c>
       <c r="X7" t="n">
-        <v>289.89</v>
+        <v>246.1</v>
       </c>
       <c r="Y7" t="n">
         <v>196.64</v>
       </c>
       <c r="Z7" t="n">
-        <v>426.15</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>437.11</v>
-      </c>
+        <v>166.87</v>
+      </c>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
-        <v>235.38</v>
+        <v>157.15</v>
       </c>
       <c r="AC7" t="n">
-        <v>244.34</v>
+        <v>195.56</v>
       </c>
       <c r="AD7" t="n">
-        <v>239.87</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>258.58</v>
-      </c>
+        <v>177.31</v>
+      </c>
+      <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
-        <v>266.9</v>
+        <v>200.17</v>
       </c>
       <c r="AH7" t="n">
-        <v>261.53</v>
+        <v>200.23</v>
       </c>
       <c r="AI7" t="n">
-        <v>240.35</v>
+        <v>168.66</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="n">
-        <v>158.5</v>
-      </c>
+      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="n">
-        <v>299.5</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>522.77</v>
-      </c>
+        <v>286.21</v>
+      </c>
+      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>244.72</v>
+        <v>300.3</v>
       </c>
       <c r="AP7" t="n">
-        <v>392.07</v>
+        <v>294.76</v>
       </c>
       <c r="AQ7" t="n">
-        <v>568.3099999999999</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>266.95</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>250.23</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>250.25</v>
-      </c>
+        <v>166.87</v>
+      </c>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="n">
         <v>150.11</v>
       </c>
-      <c r="AV7" t="n">
-        <v>467.11</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>318.41</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>116.8</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>508.9</v>
-      </c>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
